--- a/Audit Chouette Agence Maricot.xlsx
+++ b/Audit Chouette Agence Maricot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86D83FB-C133-4FAC-90C7-7DDAE8F90D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{545D3CE3-01E8-4465-958D-8999B8369980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="620" windowWidth="27860" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>Catégorie</t>
   </si>
@@ -83,6 +84,73 @@
     <t>Cours OpenClassRoom : Augmentez votre traffic grâce au référencement naturel (SEO)</t>
   </si>
   <si>
+    <t>SEO et ACCESSIBILITY</t>
+  </si>
+  <si>
+    <t>Pas d'utilisation du Web sémantique et mauvaise organisation / utilisation des balises titres ( H1, H2, H3)</t>
+  </si>
+  <si>
+    <t>Rend le site moins compréhensible lors de l'indexation par Google, mais aussi pour les assistants technologique</t>
+  </si>
+  <si>
+    <t>Utiliser les balises HTML suivante : header, main, section, article, fieldset, footer
+Un seul H1 qui contient le mot-clé ou la marque, contenu segmenté en H2 avec mots-clés ou synonyme</t>
+  </si>
+  <si>
+    <t>Remplacer les balise Div par leur balise sémantique correspondante pour mieux respecter l'architecture du site.
+Réorganiser les titres du site.</t>
+  </si>
+  <si>
+    <t>Cours OpenClassRoom : Augmentez votre traffic grâce au référencement naturel (SEO)
++ cours HTML et CSS</t>
+  </si>
+  <si>
+    <t>Div Keywords avec texte blanc</t>
+  </si>
+  <si>
+    <t>Pratique pouvant mener à un banissement de la part de Google. (Black-hat)</t>
+  </si>
+  <si>
+    <t>Ne surtout pas mettre de texte blanc sur fond blanc pour tromper Google. En règles générales, ne pas tenter tromper Google pour gagner en référencement (plus à perdre qu'a gagner).</t>
+  </si>
+  <si>
+    <t>Supprimer les balises keywords caché sur la page.</t>
+  </si>
+  <si>
+    <t>Erreur de code ( balise inutile ou vide, erreur de lien 404, règles ou propriété non conformes)
+Contenu invisible</t>
+  </si>
+  <si>
+    <t>Rend l'indexation du site moins compréhensible voir impossible par Google, et ne facilite donc pas le référencement.
+Génère du contenu invisible si les liens ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Coder le site le plus proprement possible. 
+Vérifier que les liens fonctionnes, corriger les erreurs dès qu'elles apparraisent et passer le code au validateur W3C afin de detecter les potentiels problème.</t>
+  </si>
+  <si>
+    <t>Supprimer les balises inutiles ou vide, corriger les erreurs signalées par l'éditeurs de code, ou les outils de developpements, s'assurer que les liens sont bien suivi (organiser proprement ses dossiers)
+Corriger les erreurs d'affichage et d'apparence.</t>
+  </si>
+  <si>
+    <t>ACCESSIBILITY</t>
+  </si>
+  <si>
+    <t>Langue non defini</t>
+  </si>
+  <si>
+    <t>Ne permet pas une bonne compréhension de la langue du site pour les assistants technologique</t>
+  </si>
+  <si>
+    <t>Bien paramétrer la langue du site dans l'en-tête du code Html</t>
+  </si>
+  <si>
+    <t>Préciser la langue "fr"</t>
+  </si>
+  <si>
+    <t>MDN web doc accessibilité et WCAG</t>
+  </si>
+  <si>
     <t>Mots-clé et contenu à revoir</t>
   </si>
   <si>
@@ -100,7 +168,10 @@
     <t>Aucune mention de la marque ou du contenu de la page dans la barre d'URL. Ne facilite pas l'indexation de la page.</t>
   </si>
   <si>
-    <t>Renommer les fichiers html</t>
+    <t>Nommer les pages.html avec un mot-clé correspondant au contenu de la page</t>
+  </si>
+  <si>
+    <t>Renommer la page2 en Contact</t>
   </si>
   <si>
     <t>Inefficacités des partenaires et annuaires</t>
@@ -122,55 +193,6 @@
   </si>
   <si>
     <t>Mettre en place Google analytics, et surveillez l'évolution du traffic afin d'optimiser le site au et à mesure. Utiliser en parallèles de la Google Search Console pour une meilleur analyse des données.</t>
-  </si>
-  <si>
-    <t>SEO et ACCESSIBILITY</t>
-  </si>
-  <si>
-    <t>Pas d'utilisation du Web sémantique et mauvaise organisation / utilisation des balises titres ( H1, H2, H3)</t>
-  </si>
-  <si>
-    <t>Rend le site moins compréhensible lors de l'indexation par Google, mais aussi pour les assistants technologique</t>
-  </si>
-  <si>
-    <t>Utiliser les balises HTML suivante : header, main, section, article, fieldset, footer
-Un seul H1 qui contient le mot-clé ou la marque, contenu segmenté en H2 avec mots-clés ou synonyme</t>
-  </si>
-  <si>
-    <t>Remplacer les balise Div par leur balise sémantique correspondante pour mieux respecter l'architecture du site.
-Réorganiser les titres du site.</t>
-  </si>
-  <si>
-    <t>Cours OpenClassRoom : Augmentez votre traffic grâce au référencement naturel (SEO)
-+ cours HTML et CSS</t>
-  </si>
-  <si>
-    <t>Div Keywords avec texte blanc</t>
-  </si>
-  <si>
-    <t>Pratique pouvant mener à un banissement de la part de Google. (Black-hat)</t>
-  </si>
-  <si>
-    <t>Ne surtout pas mettre de texte blanc sur fond blanc pour tromper Google. En règles générales, ne pas tenter tromper Google pour gagner en référencement (plus à perdre qu'a gagner).</t>
-  </si>
-  <si>
-    <t>Supprimer les balises keywords caché sur la page.</t>
-  </si>
-  <si>
-    <t>Erreur de code ( balise inutile ou vide, erreur de lien 404, règles ou propriété non conformes)
-Contenu invisible</t>
-  </si>
-  <si>
-    <t>Rend l'indexation du site moins compréhensible voir impossible par Google, et ne facilite donc pas le référencement.
-Génère du contenu invisible si les liens ne fonctionne pas</t>
-  </si>
-  <si>
-    <t>Coder le site le plus proprement possible. 
-Vérifier que les liens fonctionnes, corriger les erreurs dès qu'elles apparraisent et passer le code au validateur W3C afin de detecter les potentiels problème.</t>
-  </si>
-  <si>
-    <t>Supprimer les balises inutiles ou vide, corriger les erreurs signalées par l'éditeurs de code, ou les outils de developpements, s'assurer que les liens sont bien suivi (organiser proprement ses dossiers)
-Corriger les erreurs d'affichage et d'apparence.</t>
   </si>
   <si>
     <t>Images</t>
@@ -214,9 +236,6 @@
     <t>Corriger les erreurs et rendre le site plus responsive.</t>
   </si>
   <si>
-    <t>ACCESSIBILITY</t>
-  </si>
-  <si>
     <t>Texte trop petit</t>
   </si>
   <si>
@@ -239,9 +258,6 @@
   </si>
   <si>
     <t xml:space="preserve">Un contraste dont le ratio est de 4.5:1 pour les textes normaux, et de 3:1 pour les grands textes. </t>
-  </si>
-  <si>
-    <t>MDN web doc accessibilité et WCAG</t>
   </si>
   <si>
     <t>Label formulaire non-identifié
@@ -264,24 +280,6 @@
     <t>Cours OpenClassRoom : Augmentez votre traffic grâce au référencement naturel (SEO)
 MDN Web Doc accessibilité
 WCAG</t>
-  </si>
-  <si>
-    <t>Langue non defini</t>
-  </si>
-  <si>
-    <t>Ne permet pas une bonne compréhension de la langue du site pour les assistants technologique</t>
-  </si>
-  <si>
-    <t>Bien paramétrer la langue du site dans l'en-tête du code Html</t>
-  </si>
-  <si>
-    <t>Préciser la langue "fr"</t>
-  </si>
-  <si>
-    <t>Menu de navigation non-conforme</t>
-  </si>
-  <si>
-    <t>Ne permet pas une bonne compréhension de la structure du site pour les assistants téchnologique</t>
   </si>
 </sst>
 </file>
@@ -311,7 +309,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +320,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -364,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -378,28 +370,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,15 +603,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="50.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="39.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="59.109375" style="4" customWidth="1"/>
@@ -675,300 +661,292 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="132.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="120.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="147" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="132.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="50.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="150" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="50.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="75" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="120.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="50.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="147" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="150" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="11" t="s">
+    </row>
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="50.25" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F16" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Audit Chouette Agence Maricot.xlsx
+++ b/Audit Chouette Agence Maricot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545D3CE3-01E8-4465-958D-8999B8369980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACA8219-B946-49EA-86A9-7A7955A0A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="620" windowWidth="27860" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
